--- a/Bug Tracker _ Amnet Digital 3.0.xlsx
+++ b/Bug Tracker _ Amnet Digital 3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dayan\Desktop\QA files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2FC3EA-6EA4-4980-B26E-542196578622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20583B58-D37B-4BEB-8395-E67B176AA1F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{594BC756-E5B0-4631-A474-73C52B5FE5F2}"/>
   </bookViews>
@@ -618,7 +618,7 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,7 +703,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
